--- a/prueba_ipc_ine.xlsx
+++ b/prueba_ipc_ine.xlsx
@@ -482,11 +482,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IPC general - Total País (Base Octubre 2022=100)</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INE_IPC</t>
+          <t>INE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Índice base Octubre 2022=100</t>
+          <t>Indice</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Macro - Inflación</t>
+          <t>Macro</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>13697</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>13728</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>13759</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>13789</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>13820</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>13850</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>13881</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>13912</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>13940</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>13971</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>14001</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>14032</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>14062</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>14093</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>14124</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>14154</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>14185</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>14215</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>14246</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>14277</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>14305</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>14336</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>14366</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>14397</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>14427</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>14458</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>14489</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>14519</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>14550</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>14580</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>14611</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>14642</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>14671</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>14702</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>14732</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>14763</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>14793</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>14824</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>14855</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>14885</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>14916</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>14946</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>14977</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>15008</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>15036</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>15067</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>15097</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>15128</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>15158</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>15189</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>15220</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>15250</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>15281</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>15311</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>15342</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>15373</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>15401</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>15432</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>15462</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>15493</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>15523</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>15554</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>15585</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>15615</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>15646</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>15676</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>15707</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>15738</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>15766</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>15797</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>15827</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>15858</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>15888</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>15919</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>15950</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>15980</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>16011</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>16041</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>16072</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>16103</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>16132</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>16163</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>16193</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>16224</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>16254</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>16285</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>16316</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>16346</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>16377</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>16407</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>16438</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>16469</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>16497</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>16528</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>16558</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>16589</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>16619</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>16650</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>16681</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>16711</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>16742</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>16772</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>16803</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>16834</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>16862</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>16893</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>16923</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>16954</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>16984</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>17015</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>17046</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>17076</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>17107</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>17137</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>17168</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>17199</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>17227</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>17258</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>17288</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>17319</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>17349</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>17380</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>17411</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>17441</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>17472</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>17502</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>17533</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>17564</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>17593</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>17624</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>17654</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>17685</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>17715</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>17746</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>17777</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>17807</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>17838</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>17868</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>17899</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>17930</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>17958</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>17989</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>18019</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>18050</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>18080</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>18111</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>18142</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>18172</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>18203</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>18233</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>18264</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>18295</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>18323</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>18354</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>18384</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>18415</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>18445</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>18476</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>18507</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>18537</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>18568</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>18598</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>18629</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>18660</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>18688</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>18719</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>18749</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>18780</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>18810</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>18841</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>18872</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>18902</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>18933</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>18963</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>18994</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>19025</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>19054</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>19085</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>19115</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>19146</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>19176</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>19207</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>19238</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>19268</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>19299</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>19329</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>19360</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>19391</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>19419</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>19450</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>19480</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>19511</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>19541</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>19572</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>19603</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>19633</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>19664</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>19694</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>19725</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>19756</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>19784</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>19815</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>19845</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>19876</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>19906</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>19937</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>19968</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>19998</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>20029</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>20059</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>20090</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>20121</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>20149</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>20180</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>20210</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>20241</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>20271</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>20302</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>20333</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>20363</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>20394</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>20424</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>20455</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>20486</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>20515</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>20546</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>20576</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>20607</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>20637</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>20668</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>20699</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>20729</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>20760</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>20790</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>20821</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>20852</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>20880</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>20911</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>20941</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>20972</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>21002</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>21033</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>21064</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>21094</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>21125</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>21155</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>21186</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>21217</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>21245</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>21276</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>21306</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>21337</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>21367</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>21398</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>21429</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>21459</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>21490</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>21520</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>21551</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>21582</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>21610</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>21641</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>21671</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B265" s="2" t="n">
         <v>21702</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B266" s="2" t="n">
         <v>21732</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>21763</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>21794</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>21824</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B270" s="2" t="n">
         <v>21855</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>21885</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B272" s="2" t="n">
         <v>21916</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B273" s="2" t="n">
         <v>21947</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B274" s="2" t="n">
         <v>21976</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B275" s="2" t="n">
         <v>22007</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B276" s="2" t="n">
         <v>22037</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B277" s="2" t="n">
         <v>22068</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B278" s="2" t="n">
         <v>22098</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B279" s="2" t="n">
         <v>22129</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>22160</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B281" s="2" t="n">
         <v>22190</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B282" s="2" t="n">
         <v>22221</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B283" s="2" t="n">
         <v>22251</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B284" s="2" t="n">
         <v>22282</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B285" s="2" t="n">
         <v>22313</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B286" s="2" t="n">
         <v>22341</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B287" s="2" t="n">
         <v>22372</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B288" s="2" t="n">
         <v>22402</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B289" s="2" t="n">
         <v>22433</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B290" s="2" t="n">
         <v>22463</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B291" s="2" t="n">
         <v>22494</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B292" s="2" t="n">
         <v>22525</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B293" s="2" t="n">
         <v>22555</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B294" s="2" t="n">
         <v>22586</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B295" s="2" t="n">
         <v>22616</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B296" s="2" t="n">
         <v>22647</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B297" s="2" t="n">
         <v>22678</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B298" s="2" t="n">
         <v>22706</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B299" s="2" t="n">
         <v>22737</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B300" s="2" t="n">
         <v>22767</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B301" s="2" t="n">
         <v>22798</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B302" s="2" t="n">
         <v>22828</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B303" s="2" t="n">
         <v>22859</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B304" s="2" t="n">
         <v>22890</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B305" s="2" t="n">
         <v>22920</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B306" s="2" t="n">
         <v>22951</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B307" s="2" t="n">
         <v>22981</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B308" s="2" t="n">
         <v>23012</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B309" s="2" t="n">
         <v>23043</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B310" s="2" t="n">
         <v>23071</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B311" s="2" t="n">
         <v>23102</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B312" s="2" t="n">
         <v>23132</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B313" s="2" t="n">
         <v>23163</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B314" s="2" t="n">
         <v>23193</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B315" s="2" t="n">
         <v>23224</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B316" s="2" t="n">
         <v>23255</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B317" s="2" t="n">
         <v>23285</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B318" s="2" t="n">
         <v>23316</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B319" s="2" t="n">
         <v>23346</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B320" s="2" t="n">
         <v>23377</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B321" s="2" t="n">
         <v>23408</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B322" s="2" t="n">
         <v>23437</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B323" s="2" t="n">
         <v>23468</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B324" s="2" t="n">
         <v>23498</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B325" s="2" t="n">
         <v>23529</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B326" s="2" t="n">
         <v>23559</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B327" s="2" t="n">
         <v>23590</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B328" s="2" t="n">
         <v>23621</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B329" s="2" t="n">
         <v>23651</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B330" s="2" t="n">
         <v>23682</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B331" s="2" t="n">
         <v>23712</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B332" s="2" t="n">
         <v>23743</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B333" s="2" t="n">
         <v>23774</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B334" s="2" t="n">
         <v>23802</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B335" s="2" t="n">
         <v>23833</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B336" s="2" t="n">
         <v>23863</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B337" s="2" t="n">
         <v>23894</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B338" s="2" t="n">
         <v>23924</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B339" s="2" t="n">
         <v>23955</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B340" s="2" t="n">
         <v>23986</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B341" s="2" t="n">
         <v>24016</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B342" s="2" t="n">
         <v>24047</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B343" s="2" t="n">
         <v>24077</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B344" s="2" t="n">
         <v>24108</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B345" s="2" t="n">
         <v>24139</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B346" s="2" t="n">
         <v>24167</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B347" s="2" t="n">
         <v>24198</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B348" s="2" t="n">
         <v>24228</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B349" s="2" t="n">
         <v>24259</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B350" s="2" t="n">
         <v>24289</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B351" s="2" t="n">
         <v>24320</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B352" s="2" t="n">
         <v>24351</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B353" s="2" t="n">
         <v>24381</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>24412</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B355" s="2" t="n">
         <v>24442</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>24473</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B357" s="2" t="n">
         <v>24504</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B358" s="2" t="n">
         <v>24532</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B359" s="2" t="n">
         <v>24563</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>24593</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>24624</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B362" s="2" t="n">
         <v>24654</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B363" s="2" t="n">
         <v>24685</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B364" s="2" t="n">
         <v>24716</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>24746</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B366" s="2" t="n">
         <v>24777</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B367" s="2" t="n">
         <v>24807</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B368" s="2" t="n">
         <v>24838</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B369" s="2" t="n">
         <v>24869</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>24898</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B371" s="2" t="n">
         <v>24929</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B372" s="2" t="n">
         <v>24959</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>24990</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>25020</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>25051</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>25082</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>25112</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>25143</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B379" s="2" t="n">
         <v>25173</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B380" s="2" t="n">
         <v>25204</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B381" s="2" t="n">
         <v>25235</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B382" s="2" t="n">
         <v>25263</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>25294</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B384" s="2" t="n">
         <v>25324</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B385" s="2" t="n">
         <v>25355</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B386" s="2" t="n">
         <v>25385</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>25416</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B388" s="2" t="n">
         <v>25447</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>25477</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B390" s="2" t="n">
         <v>25508</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B391" s="2" t="n">
         <v>25538</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>25569</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B393" s="2" t="n">
         <v>25600</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>25628</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B395" s="2" t="n">
         <v>25659</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B396" s="2" t="n">
         <v>25689</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B397" s="2" t="n">
         <v>25720</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>25750</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>25781</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B400" s="2" t="n">
         <v>25812</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B401" s="2" t="n">
         <v>25842</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B402" s="2" t="n">
         <v>25873</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B403" s="2" t="n">
         <v>25903</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B404" s="2" t="n">
         <v>25934</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B405" s="2" t="n">
         <v>25965</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B406" s="2" t="n">
         <v>25993</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B407" s="2" t="n">
         <v>26024</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B408" s="2" t="n">
         <v>26054</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B409" s="2" t="n">
         <v>26085</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B410" s="2" t="n">
         <v>26115</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B411" s="2" t="n">
         <v>26146</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B412" s="2" t="n">
         <v>26177</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B413" s="2" t="n">
         <v>26207</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B414" s="2" t="n">
         <v>26238</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B415" s="2" t="n">
         <v>26268</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B416" s="2" t="n">
         <v>26299</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B417" s="2" t="n">
         <v>26330</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B418" s="2" t="n">
         <v>26359</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B419" s="2" t="n">
         <v>26390</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B420" s="2" t="n">
         <v>26420</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B421" s="2" t="n">
         <v>26451</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B422" s="2" t="n">
         <v>26481</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B423" s="2" t="n">
         <v>26512</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B424" s="2" t="n">
         <v>26543</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B425" s="2" t="n">
         <v>26573</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B426" s="2" t="n">
         <v>26604</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B427" s="2" t="n">
         <v>26634</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B428" s="2" t="n">
         <v>26665</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B429" s="2" t="n">
         <v>26696</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B430" s="2" t="n">
         <v>26724</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B431" s="2" t="n">
         <v>26755</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B432" s="2" t="n">
         <v>26785</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B433" s="2" t="n">
         <v>26816</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B434" s="2" t="n">
         <v>26846</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B435" s="2" t="n">
         <v>26877</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B436" s="2" t="n">
         <v>26908</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B437" s="2" t="n">
         <v>26938</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B438" s="2" t="n">
         <v>26969</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B439" s="2" t="n">
         <v>26999</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B440" s="2" t="n">
         <v>27030</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B441" s="2" t="n">
         <v>27061</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B442" s="2" t="n">
         <v>27089</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B443" s="2" t="n">
         <v>27120</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B444" s="2" t="n">
         <v>27150</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B445" s="2" t="n">
         <v>27181</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B446" s="2" t="n">
         <v>27211</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B447" s="2" t="n">
         <v>27242</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B448" s="2" t="n">
         <v>27273</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B449" s="2" t="n">
         <v>27303</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B450" s="2" t="n">
         <v>27334</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B451" s="2" t="n">
         <v>27364</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B452" s="2" t="n">
         <v>27395</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B453" s="2" t="n">
         <v>27426</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B454" s="2" t="n">
         <v>27454</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B455" s="2" t="n">
         <v>27485</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B456" s="2" t="n">
         <v>27515</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B457" s="2" t="n">
         <v>27546</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B458" s="2" t="n">
         <v>27576</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B459" s="2" t="n">
         <v>27607</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B460" s="2" t="n">
         <v>27638</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B461" s="2" t="n">
         <v>27668</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B462" s="2" t="n">
         <v>27699</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B463" s="2" t="n">
         <v>27729</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B464" s="2" t="n">
         <v>27760</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B465" s="2" t="n">
         <v>27791</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B466" s="2" t="n">
         <v>27820</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B467" s="2" t="n">
         <v>27851</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B468" s="2" t="n">
         <v>27881</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B469" s="2" t="n">
         <v>27912</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B470" s="2" t="n">
         <v>27942</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B471" s="2" t="n">
         <v>27973</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B472" s="2" t="n">
         <v>28004</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B473" s="2" t="n">
         <v>28034</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B474" s="2" t="n">
         <v>28065</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B475" s="2" t="n">
         <v>28095</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B476" s="2" t="n">
         <v>28126</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B477" s="2" t="n">
         <v>28157</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B478" s="2" t="n">
         <v>28185</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B479" s="2" t="n">
         <v>28216</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B480" s="2" t="n">
         <v>28246</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B481" s="2" t="n">
         <v>28277</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B482" s="2" t="n">
         <v>28307</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B483" s="2" t="n">
         <v>28338</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B484" s="2" t="n">
         <v>28369</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B485" s="2" t="n">
         <v>28399</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B486" s="2" t="n">
         <v>28430</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B487" s="2" t="n">
         <v>28460</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B488" s="2" t="n">
         <v>28491</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B489" s="2" t="n">
         <v>28522</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B490" s="2" t="n">
         <v>28550</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B491" s="2" t="n">
         <v>28581</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B492" s="2" t="n">
         <v>28611</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B493" s="2" t="n">
         <v>28642</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B494" s="2" t="n">
         <v>28672</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B495" s="2" t="n">
         <v>28703</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B496" s="2" t="n">
         <v>28734</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B497" s="2" t="n">
         <v>28764</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B498" s="2" t="n">
         <v>28795</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B499" s="2" t="n">
         <v>28825</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B500" s="2" t="n">
         <v>28856</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B501" s="2" t="n">
         <v>28887</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B502" s="2" t="n">
         <v>28915</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B503" s="2" t="n">
         <v>28946</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B504" s="2" t="n">
         <v>28976</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B505" s="2" t="n">
         <v>29007</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B506" s="2" t="n">
         <v>29037</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B507" s="2" t="n">
         <v>29068</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B508" s="2" t="n">
         <v>29099</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B509" s="2" t="n">
         <v>29129</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B510" s="2" t="n">
         <v>29160</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B511" s="2" t="n">
         <v>29190</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B512" s="2" t="n">
         <v>29221</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B513" s="2" t="n">
         <v>29252</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B514" s="2" t="n">
         <v>29281</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B515" s="2" t="n">
         <v>29312</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B516" s="2" t="n">
         <v>29342</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B517" s="2" t="n">
         <v>29373</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B518" s="2" t="n">
         <v>29403</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B519" s="2" t="n">
         <v>29434</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B520" s="2" t="n">
         <v>29465</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B521" s="2" t="n">
         <v>29495</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B522" s="2" t="n">
         <v>29526</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B523" s="2" t="n">
         <v>29556</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B524" s="2" t="n">
         <v>29587</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B525" s="2" t="n">
         <v>29618</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B526" s="2" t="n">
         <v>29646</v>
@@ -6331,7 +6331,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B527" s="2" t="n">
         <v>29677</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B528" s="2" t="n">
         <v>29707</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B529" s="2" t="n">
         <v>29738</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B530" s="2" t="n">
         <v>29768</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B531" s="2" t="n">
         <v>29799</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B532" s="2" t="n">
         <v>29830</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B533" s="2" t="n">
         <v>29860</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B534" s="2" t="n">
         <v>29891</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B535" s="2" t="n">
         <v>29921</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B536" s="2" t="n">
         <v>29952</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B537" s="2" t="n">
         <v>29983</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B538" s="2" t="n">
         <v>30011</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B539" s="2" t="n">
         <v>30042</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B540" s="2" t="n">
         <v>30072</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B541" s="2" t="n">
         <v>30103</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B542" s="2" t="n">
         <v>30133</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B543" s="2" t="n">
         <v>30164</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B544" s="2" t="n">
         <v>30195</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B545" s="2" t="n">
         <v>30225</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B546" s="2" t="n">
         <v>30256</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B547" s="2" t="n">
         <v>30286</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B548" s="2" t="n">
         <v>30317</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B549" s="2" t="n">
         <v>30348</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B550" s="2" t="n">
         <v>30376</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B551" s="2" t="n">
         <v>30407</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B552" s="2" t="n">
         <v>30437</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B553" s="2" t="n">
         <v>30468</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B554" s="2" t="n">
         <v>30498</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B555" s="2" t="n">
         <v>30529</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B556" s="2" t="n">
         <v>30560</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B557" s="2" t="n">
         <v>30590</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B558" s="2" t="n">
         <v>30621</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B559" s="2" t="n">
         <v>30651</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B560" s="2" t="n">
         <v>30682</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B561" s="2" t="n">
         <v>30713</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B562" s="2" t="n">
         <v>30742</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B563" s="2" t="n">
         <v>30773</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B564" s="2" t="n">
         <v>30803</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B565" s="2" t="n">
         <v>30834</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B566" s="2" t="n">
         <v>30864</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B567" s="2" t="n">
         <v>30895</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B568" s="2" t="n">
         <v>30926</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B569" s="2" t="n">
         <v>30956</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B570" s="2" t="n">
         <v>30987</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B571" s="2" t="n">
         <v>31017</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B572" s="2" t="n">
         <v>31048</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B573" s="2" t="n">
         <v>31079</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B574" s="2" t="n">
         <v>31107</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B575" s="2" t="n">
         <v>31138</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B576" s="2" t="n">
         <v>31168</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B577" s="2" t="n">
         <v>31199</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B578" s="2" t="n">
         <v>31229</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B579" s="2" t="n">
         <v>31260</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B580" s="2" t="n">
         <v>31291</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B581" s="2" t="n">
         <v>31321</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B582" s="2" t="n">
         <v>31352</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B583" s="2" t="n">
         <v>31382</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B584" s="2" t="n">
         <v>31413</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B585" s="2" t="n">
         <v>31444</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B586" s="2" t="n">
         <v>31472</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B587" s="2" t="n">
         <v>31503</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B588" s="2" t="n">
         <v>31533</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B589" s="2" t="n">
         <v>31564</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B590" s="2" t="n">
         <v>31594</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B591" s="2" t="n">
         <v>31625</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B592" s="2" t="n">
         <v>31656</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B593" s="2" t="n">
         <v>31686</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B594" s="2" t="n">
         <v>31717</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B595" s="2" t="n">
         <v>31747</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B596" s="2" t="n">
         <v>31778</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B597" s="2" t="n">
         <v>31809</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B598" s="2" t="n">
         <v>31837</v>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B599" s="2" t="n">
         <v>31868</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B600" s="2" t="n">
         <v>31898</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B601" s="2" t="n">
         <v>31929</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B602" s="2" t="n">
         <v>31959</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B603" s="2" t="n">
         <v>31990</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B604" s="2" t="n">
         <v>32021</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B605" s="2" t="n">
         <v>32051</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B606" s="2" t="n">
         <v>32082</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B607" s="2" t="n">
         <v>32112</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B608" s="2" t="n">
         <v>32143</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B609" s="2" t="n">
         <v>32174</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B610" s="2" t="n">
         <v>32203</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B611" s="2" t="n">
         <v>32234</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B612" s="2" t="n">
         <v>32264</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B613" s="2" t="n">
         <v>32295</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B614" s="2" t="n">
         <v>32325</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B615" s="2" t="n">
         <v>32356</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B616" s="2" t="n">
         <v>32387</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B617" s="2" t="n">
         <v>32417</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B618" s="2" t="n">
         <v>32448</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B619" s="2" t="n">
         <v>32478</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B620" s="2" t="n">
         <v>32509</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B621" s="2" t="n">
         <v>32540</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B622" s="2" t="n">
         <v>32568</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B623" s="2" t="n">
         <v>32599</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B624" s="2" t="n">
         <v>32629</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B625" s="2" t="n">
         <v>32660</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B626" s="2" t="n">
         <v>32690</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B627" s="2" t="n">
         <v>32721</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B628" s="2" t="n">
         <v>32752</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B629" s="2" t="n">
         <v>32782</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B630" s="2" t="n">
         <v>32813</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B631" s="2" t="n">
         <v>32843</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B632" s="2" t="n">
         <v>32874</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B633" s="2" t="n">
         <v>32905</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B634" s="2" t="n">
         <v>32933</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B635" s="2" t="n">
         <v>32964</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B636" s="2" t="n">
         <v>32994</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B637" s="2" t="n">
         <v>33025</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B638" s="2" t="n">
         <v>33055</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B639" s="2" t="n">
         <v>33086</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B640" s="2" t="n">
         <v>33117</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B641" s="2" t="n">
         <v>33147</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B642" s="2" t="n">
         <v>33178</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B643" s="2" t="n">
         <v>33208</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B644" s="2" t="n">
         <v>33239</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B645" s="2" t="n">
         <v>33270</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B646" s="2" t="n">
         <v>33298</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B647" s="2" t="n">
         <v>33329</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B648" s="2" t="n">
         <v>33359</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B649" s="2" t="n">
         <v>33390</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B650" s="2" t="n">
         <v>33420</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B651" s="2" t="n">
         <v>33451</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B652" s="2" t="n">
         <v>33482</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B653" s="2" t="n">
         <v>33512</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B654" s="2" t="n">
         <v>33543</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B655" s="2" t="n">
         <v>33573</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B656" s="2" t="n">
         <v>33604</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B657" s="2" t="n">
         <v>33635</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B658" s="2" t="n">
         <v>33664</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B659" s="2" t="n">
         <v>33695</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B660" s="2" t="n">
         <v>33725</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B661" s="2" t="n">
         <v>33756</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B662" s="2" t="n">
         <v>33786</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B663" s="2" t="n">
         <v>33817</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B664" s="2" t="n">
         <v>33848</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B665" s="2" t="n">
         <v>33878</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B666" s="2" t="n">
         <v>33909</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B667" s="2" t="n">
         <v>33939</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B668" s="2" t="n">
         <v>33970</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B669" s="2" t="n">
         <v>34001</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B670" s="2" t="n">
         <v>34029</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B671" s="2" t="n">
         <v>34060</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B672" s="2" t="n">
         <v>34090</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B673" s="2" t="n">
         <v>34121</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B674" s="2" t="n">
         <v>34151</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B675" s="2" t="n">
         <v>34182</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B676" s="2" t="n">
         <v>34213</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B677" s="2" t="n">
         <v>34243</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B678" s="2" t="n">
         <v>34274</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B679" s="2" t="n">
         <v>34304</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B680" s="2" t="n">
         <v>34335</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B681" s="2" t="n">
         <v>34366</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B682" s="2" t="n">
         <v>34394</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B683" s="2" t="n">
         <v>34425</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B684" s="2" t="n">
         <v>34455</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B685" s="2" t="n">
         <v>34486</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B686" s="2" t="n">
         <v>34516</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B687" s="2" t="n">
         <v>34547</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B688" s="2" t="n">
         <v>34578</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B689" s="2" t="n">
         <v>34608</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B690" s="2" t="n">
         <v>34639</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B691" s="2" t="n">
         <v>34669</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B692" s="2" t="n">
         <v>34700</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B693" s="2" t="n">
         <v>34731</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B694" s="2" t="n">
         <v>34759</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B695" s="2" t="n">
         <v>34790</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B696" s="2" t="n">
         <v>34820</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B697" s="2" t="n">
         <v>34851</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B698" s="2" t="n">
         <v>34881</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B699" s="2" t="n">
         <v>34912</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B700" s="2" t="n">
         <v>34943</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B701" s="2" t="n">
         <v>34973</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B702" s="2" t="n">
         <v>35004</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B703" s="2" t="n">
         <v>35034</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B704" s="2" t="n">
         <v>35065</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B705" s="2" t="n">
         <v>35096</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B706" s="2" t="n">
         <v>35125</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B707" s="2" t="n">
         <v>35156</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B708" s="2" t="n">
         <v>35186</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B709" s="2" t="n">
         <v>35217</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B710" s="2" t="n">
         <v>35247</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B711" s="2" t="n">
         <v>35278</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B712" s="2" t="n">
         <v>35309</v>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B713" s="2" t="n">
         <v>35339</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B714" s="2" t="n">
         <v>35370</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B715" s="2" t="n">
         <v>35400</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B716" s="2" t="n">
         <v>35431</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B717" s="2" t="n">
         <v>35462</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B718" s="2" t="n">
         <v>35490</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B719" s="2" t="n">
         <v>35521</v>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B720" s="2" t="n">
         <v>35551</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B721" s="2" t="n">
         <v>35582</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B722" s="2" t="n">
         <v>35612</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B723" s="2" t="n">
         <v>35643</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B724" s="2" t="n">
         <v>35674</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B725" s="2" t="n">
         <v>35704</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B726" s="2" t="n">
         <v>35735</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B727" s="2" t="n">
         <v>35765</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B728" s="2" t="n">
         <v>35796</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B729" s="2" t="n">
         <v>35827</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B730" s="2" t="n">
         <v>35855</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B731" s="2" t="n">
         <v>35886</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B732" s="2" t="n">
         <v>35916</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B733" s="2" t="n">
         <v>35947</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B734" s="2" t="n">
         <v>35977</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B735" s="2" t="n">
         <v>36008</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B736" s="2" t="n">
         <v>36039</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B737" s="2" t="n">
         <v>36069</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B738" s="2" t="n">
         <v>36100</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B739" s="2" t="n">
         <v>36130</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B740" s="2" t="n">
         <v>36161</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B741" s="2" t="n">
         <v>36192</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B742" s="2" t="n">
         <v>36220</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B743" s="2" t="n">
         <v>36251</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B744" s="2" t="n">
         <v>36281</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B745" s="2" t="n">
         <v>36312</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B746" s="2" t="n">
         <v>36342</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B747" s="2" t="n">
         <v>36373</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B748" s="2" t="n">
         <v>36404</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B749" s="2" t="n">
         <v>36434</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B750" s="2" t="n">
         <v>36465</v>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B751" s="2" t="n">
         <v>36495</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B752" s="2" t="n">
         <v>36526</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B753" s="2" t="n">
         <v>36557</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B754" s="2" t="n">
         <v>36586</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B755" s="2" t="n">
         <v>36617</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B756" s="2" t="n">
         <v>36647</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B757" s="2" t="n">
         <v>36678</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B758" s="2" t="n">
         <v>36708</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B759" s="2" t="n">
         <v>36739</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B760" s="2" t="n">
         <v>36770</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B761" s="2" t="n">
         <v>36800</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B762" s="2" t="n">
         <v>36831</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B763" s="2" t="n">
         <v>36861</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B764" s="2" t="n">
         <v>36892</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B765" s="2" t="n">
         <v>36923</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B766" s="2" t="n">
         <v>36951</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B767" s="2" t="n">
         <v>36982</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B768" s="2" t="n">
         <v>37012</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B769" s="2" t="n">
         <v>37043</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B770" s="2" t="n">
         <v>37073</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B771" s="2" t="n">
         <v>37104</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B772" s="2" t="n">
         <v>37135</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B773" s="2" t="n">
         <v>37165</v>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B774" s="2" t="n">
         <v>37196</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B775" s="2" t="n">
         <v>37226</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B776" s="2" t="n">
         <v>37257</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B777" s="2" t="n">
         <v>37288</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B778" s="2" t="n">
         <v>37316</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B779" s="2" t="n">
         <v>37347</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B780" s="2" t="n">
         <v>37377</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B781" s="2" t="n">
         <v>37408</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B782" s="2" t="n">
         <v>37438</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B783" s="2" t="n">
         <v>37469</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B784" s="2" t="n">
         <v>37500</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B785" s="2" t="n">
         <v>37530</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B786" s="2" t="n">
         <v>37561</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B787" s="2" t="n">
         <v>37591</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B788" s="2" t="n">
         <v>37622</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B789" s="2" t="n">
         <v>37653</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B790" s="2" t="n">
         <v>37681</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B791" s="2" t="n">
         <v>37712</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B792" s="2" t="n">
         <v>37742</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B793" s="2" t="n">
         <v>37773</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B794" s="2" t="n">
         <v>37803</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B795" s="2" t="n">
         <v>37834</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B796" s="2" t="n">
         <v>37865</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B797" s="2" t="n">
         <v>37895</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B798" s="2" t="n">
         <v>37926</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B799" s="2" t="n">
         <v>37956</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B800" s="2" t="n">
         <v>37987</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B801" s="2" t="n">
         <v>38018</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B802" s="2" t="n">
         <v>38047</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B803" s="2" t="n">
         <v>38078</v>
@@ -9378,7 +9378,7 @@
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B804" s="2" t="n">
         <v>38108</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B805" s="2" t="n">
         <v>38139</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B806" s="2" t="n">
         <v>38169</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B807" s="2" t="n">
         <v>38200</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B808" s="2" t="n">
         <v>38231</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B809" s="2" t="n">
         <v>38261</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B810" s="2" t="n">
         <v>38292</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B811" s="2" t="n">
         <v>38322</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B812" s="2" t="n">
         <v>38353</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B813" s="2" t="n">
         <v>38384</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B814" s="2" t="n">
         <v>38412</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B815" s="2" t="n">
         <v>38443</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B816" s="2" t="n">
         <v>38473</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B817" s="2" t="n">
         <v>38504</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B818" s="2" t="n">
         <v>38534</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B819" s="2" t="n">
         <v>38565</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B820" s="2" t="n">
         <v>38596</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B821" s="2" t="n">
         <v>38626</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B822" s="2" t="n">
         <v>38657</v>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B823" s="2" t="n">
         <v>38687</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B824" s="2" t="n">
         <v>38718</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B825" s="2" t="n">
         <v>38749</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B826" s="2" t="n">
         <v>38777</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B827" s="2" t="n">
         <v>38808</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B828" s="2" t="n">
         <v>38838</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B829" s="2" t="n">
         <v>38869</v>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B830" s="2" t="n">
         <v>38899</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B831" s="2" t="n">
         <v>38930</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B832" s="2" t="n">
         <v>38961</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B833" s="2" t="n">
         <v>38991</v>
@@ -9708,7 +9708,7 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B834" s="2" t="n">
         <v>39022</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B835" s="2" t="n">
         <v>39052</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B836" s="2" t="n">
         <v>39083</v>
@@ -9741,7 +9741,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B837" s="2" t="n">
         <v>39114</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B838" s="2" t="n">
         <v>39142</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B839" s="2" t="n">
         <v>39173</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B840" s="2" t="n">
         <v>39203</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B841" s="2" t="n">
         <v>39234</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B842" s="2" t="n">
         <v>39264</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B843" s="2" t="n">
         <v>39295</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B844" s="2" t="n">
         <v>39326</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B845" s="2" t="n">
         <v>39356</v>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B846" s="2" t="n">
         <v>39387</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B847" s="2" t="n">
         <v>39417</v>
@@ -9862,7 +9862,7 @@
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B848" s="2" t="n">
         <v>39448</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B849" s="2" t="n">
         <v>39479</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B850" s="2" t="n">
         <v>39508</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B851" s="2" t="n">
         <v>39539</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B852" s="2" t="n">
         <v>39569</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B853" s="2" t="n">
         <v>39600</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B854" s="2" t="n">
         <v>39630</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B855" s="2" t="n">
         <v>39661</v>
@@ -9950,7 +9950,7 @@
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B856" s="2" t="n">
         <v>39692</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B857" s="2" t="n">
         <v>39722</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B858" s="2" t="n">
         <v>39753</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B859" s="2" t="n">
         <v>39783</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B860" s="2" t="n">
         <v>39814</v>
@@ -10005,7 +10005,7 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B861" s="2" t="n">
         <v>39845</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B862" s="2" t="n">
         <v>39873</v>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B863" s="2" t="n">
         <v>39904</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B864" s="2" t="n">
         <v>39934</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B865" s="2" t="n">
         <v>39965</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B866" s="2" t="n">
         <v>39995</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B867" s="2" t="n">
         <v>40026</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B868" s="2" t="n">
         <v>40057</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B869" s="2" t="n">
         <v>40087</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B870" s="2" t="n">
         <v>40118</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B871" s="2" t="n">
         <v>40148</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B872" s="2" t="n">
         <v>40179</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B873" s="2" t="n">
         <v>40210</v>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B874" s="2" t="n">
         <v>40238</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B875" s="2" t="n">
         <v>40269</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B876" s="2" t="n">
         <v>40299</v>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B877" s="2" t="n">
         <v>40330</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B878" s="2" t="n">
         <v>40360</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B879" s="2" t="n">
         <v>40391</v>
@@ -10214,7 +10214,7 @@
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B880" s="2" t="n">
         <v>40422</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B881" s="2" t="n">
         <v>40452</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B882" s="2" t="n">
         <v>40483</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B883" s="2" t="n">
         <v>40513</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B884" s="2" t="n">
         <v>40544</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B885" s="2" t="n">
         <v>40575</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B886" s="2" t="n">
         <v>40603</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B887" s="2" t="n">
         <v>40634</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B888" s="2" t="n">
         <v>40664</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B889" s="2" t="n">
         <v>40695</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B890" s="2" t="n">
         <v>40725</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B891" s="2" t="n">
         <v>40756</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B892" s="2" t="n">
         <v>40787</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B893" s="2" t="n">
         <v>40817</v>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B894" s="2" t="n">
         <v>40848</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B895" s="2" t="n">
         <v>40878</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B896" s="2" t="n">
         <v>40909</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B897" s="2" t="n">
         <v>40940</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B898" s="2" t="n">
         <v>40969</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B899" s="2" t="n">
         <v>41000</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B900" s="2" t="n">
         <v>41030</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B901" s="2" t="n">
         <v>41061</v>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B902" s="2" t="n">
         <v>41091</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B903" s="2" t="n">
         <v>41122</v>
@@ -10478,7 +10478,7 @@
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B904" s="2" t="n">
         <v>41153</v>
@@ -10489,7 +10489,7 @@
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B905" s="2" t="n">
         <v>41183</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B906" s="2" t="n">
         <v>41214</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B907" s="2" t="n">
         <v>41244</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B908" s="2" t="n">
         <v>41275</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B909" s="2" t="n">
         <v>41306</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B910" s="2" t="n">
         <v>41334</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B911" s="2" t="n">
         <v>41365</v>
@@ -10566,7 +10566,7 @@
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B912" s="2" t="n">
         <v>41395</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B913" s="2" t="n">
         <v>41426</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B914" s="2" t="n">
         <v>41456</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B915" s="2" t="n">
         <v>41487</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B916" s="2" t="n">
         <v>41518</v>
@@ -10621,7 +10621,7 @@
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B917" s="2" t="n">
         <v>41548</v>
@@ -10632,7 +10632,7 @@
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B918" s="2" t="n">
         <v>41579</v>
@@ -10643,7 +10643,7 @@
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B919" s="2" t="n">
         <v>41609</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B920" s="2" t="n">
         <v>41640</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B921" s="2" t="n">
         <v>41671</v>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B922" s="2" t="n">
         <v>41699</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B923" s="2" t="n">
         <v>41730</v>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B924" s="2" t="n">
         <v>41760</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B925" s="2" t="n">
         <v>41791</v>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B926" s="2" t="n">
         <v>41821</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B927" s="2" t="n">
         <v>41852</v>
@@ -10742,7 +10742,7 @@
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B928" s="2" t="n">
         <v>41883</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B929" s="2" t="n">
         <v>41913</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B930" s="2" t="n">
         <v>41944</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B931" s="2" t="n">
         <v>41974</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B932" s="2" t="n">
         <v>42005</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B933" s="2" t="n">
         <v>42036</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B934" s="2" t="n">
         <v>42064</v>
@@ -10819,7 +10819,7 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B935" s="2" t="n">
         <v>42095</v>
@@ -10830,7 +10830,7 @@
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B936" s="2" t="n">
         <v>42125</v>
@@ -10841,7 +10841,7 @@
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B937" s="2" t="n">
         <v>42156</v>
@@ -10852,7 +10852,7 @@
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B938" s="2" t="n">
         <v>42186</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B939" s="2" t="n">
         <v>42217</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B940" s="2" t="n">
         <v>42248</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B941" s="2" t="n">
         <v>42278</v>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B942" s="2" t="n">
         <v>42309</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B943" s="2" t="n">
         <v>42339</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B944" s="2" t="n">
         <v>42370</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B945" s="2" t="n">
         <v>42401</v>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B946" s="2" t="n">
         <v>42430</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B947" s="2" t="n">
         <v>42461</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B948" s="2" t="n">
         <v>42491</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B949" s="2" t="n">
         <v>42522</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B950" s="2" t="n">
         <v>42552</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B951" s="2" t="n">
         <v>42583</v>
@@ -11006,7 +11006,7 @@
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B952" s="2" t="n">
         <v>42614</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B953" s="2" t="n">
         <v>42644</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B954" s="2" t="n">
         <v>42675</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B955" s="2" t="n">
         <v>42705</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B956" s="2" t="n">
         <v>42736</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B957" s="2" t="n">
         <v>42767</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B958" s="2" t="n">
         <v>42795</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B959" s="2" t="n">
         <v>42826</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B960" s="2" t="n">
         <v>42856</v>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B961" s="2" t="n">
         <v>42887</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B962" s="2" t="n">
         <v>42917</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B963" s="2" t="n">
         <v>42948</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B964" s="2" t="n">
         <v>42979</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B965" s="2" t="n">
         <v>43009</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B966" s="2" t="n">
         <v>43040</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B967" s="2" t="n">
         <v>43070</v>
@@ -11182,7 +11182,7 @@
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B968" s="2" t="n">
         <v>43101</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B969" s="2" t="n">
         <v>43132</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B970" s="2" t="n">
         <v>43160</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B971" s="2" t="n">
         <v>43191</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B972" s="2" t="n">
         <v>43221</v>
@@ -11237,7 +11237,7 @@
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B973" s="2" t="n">
         <v>43252</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B974" s="2" t="n">
         <v>43282</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B975" s="2" t="n">
         <v>43313</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B976" s="2" t="n">
         <v>43344</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B977" s="2" t="n">
         <v>43374</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B978" s="2" t="n">
         <v>43405</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B979" s="2" t="n">
         <v>43435</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B980" s="2" t="n">
         <v>43466</v>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B981" s="2" t="n">
         <v>43497</v>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B982" s="2" t="n">
         <v>43525</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B983" s="2" t="n">
         <v>43556</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B984" s="2" t="n">
         <v>43586</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B985" s="2" t="n">
         <v>43617</v>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B986" s="2" t="n">
         <v>43647</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B987" s="2" t="n">
         <v>43678</v>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B988" s="2" t="n">
         <v>43709</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B989" s="2" t="n">
         <v>43739</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B990" s="2" t="n">
         <v>43770</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B991" s="2" t="n">
         <v>43800</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B992" s="2" t="n">
         <v>43831</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B993" s="2" t="n">
         <v>43862</v>
@@ -11468,7 +11468,7 @@
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B994" s="2" t="n">
         <v>43891</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B995" s="2" t="n">
         <v>43922</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B996" s="2" t="n">
         <v>43952</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B997" s="2" t="n">
         <v>43983</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B998" s="2" t="n">
         <v>44013</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B999" s="2" t="n">
         <v>44044</v>
@@ -11534,7 +11534,7 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1000" s="2" t="n">
         <v>44075</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1001" s="2" t="n">
         <v>44105</v>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1002" s="2" t="n">
         <v>44136</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1003" s="2" t="n">
         <v>44166</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1004" s="2" t="n">
         <v>44197</v>
@@ -11589,7 +11589,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1005" s="2" t="n">
         <v>44228</v>
@@ -11600,7 +11600,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1006" s="2" t="n">
         <v>44256</v>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1007" s="2" t="n">
         <v>44287</v>
@@ -11622,7 +11622,7 @@
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1008" s="2" t="n">
         <v>44317</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1009" s="2" t="n">
         <v>44348</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1010" s="2" t="n">
         <v>44378</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1011" s="2" t="n">
         <v>44409</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1012" s="2" t="n">
         <v>44440</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1013" s="2" t="n">
         <v>44470</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1014" s="2" t="n">
         <v>44501</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1015" s="2" t="n">
         <v>44531</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1016" s="2" t="n">
         <v>44562</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1017" s="2" t="n">
         <v>44593</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1018" s="2" t="n">
         <v>44621</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1019" s="2" t="n">
         <v>44652</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1020" s="2" t="n">
         <v>44682</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1021" s="2" t="n">
         <v>44713</v>
@@ -11776,7 +11776,7 @@
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1022" s="2" t="n">
         <v>44743</v>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1023" s="2" t="n">
         <v>44774</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1024" s="2" t="n">
         <v>44805</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1025" s="2" t="n">
         <v>44835</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1026" s="2" t="n">
         <v>44866</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1027" s="2" t="n">
         <v>44896</v>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1028" s="2" t="n">
         <v>44927</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1029" s="2" t="n">
         <v>44958</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1030" s="2" t="n">
         <v>44986</v>
@@ -11875,7 +11875,7 @@
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1031" s="2" t="n">
         <v>45017</v>
@@ -11886,7 +11886,7 @@
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1032" s="2" t="n">
         <v>45047</v>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1033" s="2" t="n">
         <v>45078</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1034" s="2" t="n">
         <v>45108</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1035" s="2" t="n">
         <v>45139</v>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1036" s="2" t="n">
         <v>45170</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1037" s="2" t="n">
         <v>45200</v>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1038" s="2" t="n">
         <v>45231</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1039" s="2" t="n">
         <v>45261</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1040" s="2" t="n">
         <v>45292</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1041" s="2" t="n">
         <v>45323</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1042" s="2" t="n">
         <v>45352</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1043" s="2" t="n">
         <v>45383</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1044" s="2" t="n">
         <v>45413</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1045" s="2" t="n">
         <v>45444</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1046" s="2" t="n">
         <v>45474</v>
@@ -12051,7 +12051,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1047" s="2" t="n">
         <v>45505</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1048" s="2" t="n">
         <v>45536</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1049" s="2" t="n">
         <v>45566</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1050" s="2" t="n">
         <v>45597</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1051" s="2" t="n">
         <v>45627</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1052" s="2" t="n">
         <v>45658</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1053" s="2" t="n">
         <v>45689</v>
@@ -12128,7 +12128,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1054" s="2" t="n">
         <v>45717</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1055" s="2" t="n">
         <v>45748</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1056" s="2" t="n">
         <v>45778</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1057" s="2" t="n">
         <v>45809</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1058" s="2" t="n">
         <v>45839</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1059" s="2" t="n">
         <v>45870</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1060" s="2" t="n">
         <v>45901</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1061" s="2" t="n">
         <v>45931</v>
@@ -12216,7 +12216,7 @@
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1062" s="2" t="n">
         <v>45962</v>
@@ -12227,7 +12227,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1063" s="2" t="n">
         <v>45992</v>
